--- a/medicine/Pharmacie/Poudre_(pharmacie_galénique)/Poudre_(pharmacie_galénique).xlsx
+++ b/medicine/Pharmacie/Poudre_(pharmacie_galénique)/Poudre_(pharmacie_galénique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Poudre_(pharmacie_gal%C3%A9nique)</t>
+          <t>Poudre_(pharmacie_galénique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En pharmacie galénique et selon la Pharmacopée européenne, une poudre est une forme galénique constituée de particules solides sèches, libres et plus ou moins fines utilisée pour l’administration d’au moins un principe actif de médicament par différentes voies d’administration.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Poudre_(pharmacie_gal%C3%A9nique)</t>
+          <t>Poudre_(pharmacie_galénique)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Poudres administrées telles quelles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les poudres peuvent être utilisées telles quelles pour être administrées par voie cutanée, par voie auriculaire, par voie nasale, par voie pulmonaire (généralement administrées au moyen d'un inhalateur à poudre) ou par voie orale.
 Ces poudres peuvent contenir des agents anti-agglomérants tels que le phosphate de tricalcium, la silice pyrogénée ou le talc.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Poudre_(pharmacie_gal%C3%A9nique)</t>
+          <t>Poudre_(pharmacie_galénique)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Comportement et caractérisation d'une poudre pharmaceutique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les propriétés physico-chimiques des poudres sont essentielles pour comprendre leur mode d'action et leur utilisation dans la fabrication des comprimés. Les propriétés d'écoulement, de compressibilité/compactibilité, de dissolution dépendent des caractéristiques des poudres. On retrouve ainsi :
 la taille des particules
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Poudre_(pharmacie_gal%C3%A9nique)</t>
+          <t>Poudre_(pharmacie_galénique)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,11 +596,13 @@
           <t>Poudres administrées après dissolution ou dispersion</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les poudres sont dissoutes ou dispersés dans un liquide approprié, avant administration. Elles sont administrées par voie ophtalmique, par voie parentérale ou par voie orale.
-Elles sont utilisées, entre autres, quand le principe actif en solution n'est pas suffisamment stable[1].
-Ces poudres peuvent contenir en plus des excipients présentés dans le paragraphe précédent des excipients destinés à[2],[3] :
+Elles sont utilisées, entre autres, quand le principe actif en solution n'est pas suffisamment stable.
+Ces poudres peuvent contenir en plus des excipients présentés dans le paragraphe précédent des excipients destinés à, :
 faciliter la dissolution ou la dispersion : glycolate d’amidon sodique ;
 ajuster le pouvoir osmotique ;
 ajuster ou stabiliser le pH : tampons pH ;
